--- a/Movie_Library.xlsx
+++ b/Movie_Library.xlsx
@@ -79,11 +79,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMTc1MjQ3ODAyOV5BMl5BanBnXkFtZTgwNjI1NDQ0MTE@._V1_SY1000_CR0,0,674,1000_AL_.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A scientist's drive for artificial intelligence, takes on dangerous implications when his consciousness is uploaded into one such program.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BNzI5MzM3MzkxNF5BMl5BanBnXkFtZTgwOTkyMjI4MTI@._V1_SY1000_CR0,0,673,1000_AL_.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The crew of a colony ship, bound for a remote planet, discover an uncharted paradise with a threat beyond their imagination, and must attempt a harrowing escape.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the distant future, a small waste-collecting robot inadvertently embarks on a space journey that will ultimately decide the fate of mankind.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMjExMTg5OTU0NF5BMl5BanBnXkFtZTcwMjMxMzMzMw@@._V1_SY1000_CR0,0,674,1000_AL_.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WALL·E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.imdb.com/videoembed/vi4219471385</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The shawshank redemption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.imdb.com/videoembed/vi3877612057</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Her</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.imdb.com/videoembed/vi4112492569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arrival</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.imdb.com/videoembed/vi4225807897</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Lucy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMTc1MjQ3ODAyOV5BMl5BanBnXkFtZTgwNjI1NDQ0MTE@._V1_SY1000_CR0,0,674,1000_AL_.jpg</t>
+    <t>http://www.imdb.com/videoembed/vi4114984217</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -91,15 +147,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A scientist's drive for artificial intelligence, takes on dangerous implications when his consciousness is uploaded into one such program.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The shawshank redemption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BNzI5MzM3MzkxNF5BMl5BanBnXkFtZTgwOTkyMjI4MTI@._V1_SY1000_CR0,0,673,1000_AL_.jpg</t>
+    <t>http://www.imdb.com/videoembed/vi586787609</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,53 +155,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The crew of a colony ship, bound for a remote planet, discover an uncharted paradise with a threat beyond their imagination, and must attempt a harrowing escape.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In the distant future, a small waste-collecting robot inadvertently embarks on a space journey that will ultimately decide the fate of mankind.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://images-na.ssl-images-amazon.com/images/M/MV5BMjExMTg5OTU0NF5BMl5BanBnXkFtZTcwMjMxMzMzMw@@._V1_SY1000_CR0,0,674,1000_AL_.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WALL·E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6hB3S9bIaco</t>
-  </si>
-  <si>
-    <t>Her</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WzV6mXIOVl4</t>
-  </si>
-  <si>
-    <t>Arrival</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tFMo3UJ4B4g</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tsR2-v554Hs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VCTen3-B8GU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=alIq_wG9FNk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=svnAD0TApb8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.youtube.com/watch?v=8hP9D6kZseM</t>
+    <t>http://www.imdb.com/videoembed/vi3276781081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.imdb.com/videoembed/vi2192703769</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -542,12 +548,12 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -556,12 +562,12 @@
         <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -570,12 +576,12 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
@@ -584,12 +590,12 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -598,18 +604,18 @@
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>32</v>
@@ -617,13 +623,13 @@
     </row>
     <row r="8" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>34</v>
@@ -631,16 +637,16 @@
     </row>
     <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -669,15 +675,21 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="D8" r:id="rId9"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="D8" r:id="rId8"/>
+    <hyperlink ref="D2" r:id="rId9"/>
+    <hyperlink ref="D3" r:id="rId10"/>
+    <hyperlink ref="D4" r:id="rId11"/>
+    <hyperlink ref="D5" r:id="rId12"/>
+    <hyperlink ref="D6" r:id="rId13"/>
+    <hyperlink ref="D7" r:id="rId14"/>
+    <hyperlink ref="D9" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>